--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_3_27.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_3_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1204792.583250282</v>
+        <v>1248654.080522569</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17254715.44216108</v>
+        <v>16597726.15245798</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.9342484454</v>
+        <v>492028.9342484433</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6899332.47038075</v>
+        <v>6918271.865686134</v>
       </c>
     </row>
     <row r="11">
@@ -656,19 +656,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
-        <v>424.2958575201043</v>
+        <v>39.58667609032692</v>
       </c>
       <c r="D2" t="n">
-        <v>327.2879775827832</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E2" t="n">
         <v>29.43699739328775</v>
       </c>
       <c r="F2" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -713,19 +713,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="3">
@@ -862,19 +862,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>41.26176538196641</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
         <v>269.3061403695714</v>
@@ -883,7 +883,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>19.98637518484115</v>
       </c>
     </row>
     <row r="5">
@@ -893,10 +893,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C5" t="n">
-        <v>236.8051715684548</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D5" t="n">
         <v>31.5506869772999</v>
@@ -905,16 +905,16 @@
         <v>29.43699739328775</v>
       </c>
       <c r="F5" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>14.9510387864824</v>
+        <v>384.6287472680212</v>
       </c>
       <c r="Y5" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="6">
@@ -1051,22 +1051,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>106.0626366504663</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>24.34318456170431</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1102,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
         <v>243.4206519573293</v>
@@ -1133,7 +1133,7 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C8" t="n">
-        <v>59.43589881192459</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D8" t="n">
         <v>431.5506869772999</v>
@@ -1148,7 +1148,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
         <v>0.4126214791313976</v>
@@ -1181,13 +1181,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>245.440512489918</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1300,16 +1300,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>101.6922621507629</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170476</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,16 +1339,16 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
         <v>269.3061403695714</v>
@@ -1427,10 +1427,10 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
-        <v>91.39226931002106</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>133.208388787588</v>
       </c>
       <c r="X11" t="n">
         <v>414.9510387864824</v>
@@ -1543,7 +1543,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1576,10 +1576,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>18.05677735225694</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>275.6486707394257</v>
@@ -1594,7 +1594,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y13" t="n">
-        <v>225.1454739790328</v>
+        <v>190.4707957071075</v>
       </c>
     </row>
     <row r="14">
@@ -1622,10 +1622,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
-        <v>236.0942751322843</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>71.84692347866599</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>358.9907805655117</v>
@@ -1765,7 +1765,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
-        <v>143.8427601615724</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
         <v>164.2192128704925</v>
@@ -1777,7 +1777,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
         <v>138.5031525665292</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
         <v>157.6489550149833</v>
@@ -1819,7 +1819,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U16" t="n">
-        <v>275.6486707394257</v>
+        <v>63.51633119327846</v>
       </c>
       <c r="V16" t="n">
         <v>284.0859530482738</v>
@@ -1862,7 +1862,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>32.67077719907376</v>
       </c>
       <c r="T17" t="n">
-        <v>33.08339867820234</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>256.6300796561533</v>
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>49.17722654850316</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C19" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>164.2192128704925</v>
@@ -2017,10 +2017,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>10.04027365719926</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
         <v>157.6489550149833</v>
@@ -2068,7 +2068,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="20">
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>422.0365747800587</v>
+        <v>154.0254420454393</v>
       </c>
       <c r="C20" t="n">
         <v>433.7610480884109</v>
@@ -2099,7 +2099,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2141,7 +2141,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
-        <v>133.2083887875866</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
         <v>414.9510387864824</v>
@@ -2245,19 +2245,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
-        <v>26.41040541581626</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>174.9399834978613</v>
+        <v>119.8634463900534</v>
       </c>
       <c r="G22" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>18.05677735225706</v>
+        <v>18.0567773522578</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2713,7 +2713,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D28" t="n">
         <v>164.2192128704925</v>
@@ -2728,7 +2728,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2761,10 +2761,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225796</v>
       </c>
       <c r="T28" t="n">
-        <v>136.1614161296816</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U28" t="n">
         <v>275.6486707394257</v>
@@ -2950,10 +2950,10 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C31" t="n">
-        <v>135.6786012922743</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>168.0604237117701</v>
@@ -2968,7 +2968,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
         <v>157.6489550149833</v>
@@ -3013,10 +3013,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y31" t="n">
-        <v>225.1454739790328</v>
+        <v>173.1284582071245</v>
       </c>
     </row>
     <row r="32">
@@ -3196,16 +3196,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F34" t="n">
-        <v>174.9399834978613</v>
+        <v>52.49195549286435</v>
       </c>
       <c r="G34" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,10 +3235,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>275.6486707394257</v>
@@ -3436,13 +3436,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
-        <v>243.4206519573293</v>
+        <v>20.28369113775142</v>
       </c>
       <c r="U37" t="n">
         <v>275.6486707394257</v>
@@ -3521,7 +3521,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791304972</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3557,7 +3557,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U38" t="n">
-        <v>256.6300796561524</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V38" t="n">
         <v>358.9907805655117</v>
@@ -3661,25 +3661,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
-        <v>31.24391673888186</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
-        <v>243.4206519573293</v>
+        <v>199.3487361229525</v>
       </c>
       <c r="U40" t="n">
         <v>275.6486707394257</v>
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>67.45240452680031</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
         <v>170.8360944016073</v>
@@ -3904,7 +3904,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
-        <v>168.0604237117701</v>
+        <v>168.0604237117687</v>
       </c>
       <c r="F43" t="n">
         <v>174.9399834978613</v>
@@ -3943,19 +3943,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U43" t="n">
-        <v>275.6486707394257</v>
+        <v>172.6623007436923</v>
       </c>
       <c r="V43" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>269.3061403695714</v>
@@ -4028,7 +4028,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>217.8665548556918</v>
+        <v>217.8665548556917</v>
       </c>
       <c r="U44" t="n">
         <v>256.6300796561533</v>
@@ -4043,7 +4043,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>404.2032624633422</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="45">
@@ -4138,7 +4138,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
         <v>168.0604237117701</v>
@@ -4150,10 +4150,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225706</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
@@ -4192,7 +4192,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V46" t="n">
-        <v>61.23284287475789</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
         <v>269.3061403695714</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>846.680625966315</v>
+        <v>578.981766605672</v>
       </c>
       <c r="C2" t="n">
-        <v>418.0989517035833</v>
+        <v>538.9952251002912</v>
       </c>
       <c r="D2" t="n">
-        <v>87.50503495329731</v>
+        <v>507.1258443151398</v>
       </c>
       <c r="E2" t="n">
-        <v>57.77069415199655</v>
+        <v>477.391503513839</v>
       </c>
       <c r="F2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.5240739230467</v>
       </c>
       <c r="G2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.5240739230467</v>
       </c>
       <c r="H2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.5240739230467</v>
       </c>
       <c r="I2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018671</v>
       </c>
       <c r="J2" t="n">
-        <v>33.94366860160834</v>
+        <v>484.3619720031046</v>
       </c>
       <c r="K2" t="n">
-        <v>437.0247332457074</v>
+        <v>1092.064618311665</v>
       </c>
       <c r="L2" t="n">
-        <v>437.0247332457074</v>
+        <v>1132.008730489123</v>
       </c>
       <c r="M2" t="n">
-        <v>437.0247332457074</v>
+        <v>1132.008730489123</v>
       </c>
       <c r="N2" t="n">
-        <v>437.0247332457074</v>
+        <v>1132.008730489123</v>
       </c>
       <c r="O2" t="n">
-        <v>857.0776321906106</v>
+        <v>1132.008730489123</v>
       </c>
       <c r="P2" t="n">
-        <v>1277.130531135514</v>
+        <v>1739.711376797683</v>
       </c>
       <c r="Q2" t="n">
-        <v>1697.183430080417</v>
+        <v>2286.210162756278</v>
       </c>
       <c r="R2" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509335</v>
       </c>
       <c r="S2" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509335</v>
       </c>
       <c r="T2" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509335</v>
       </c>
       <c r="U2" t="n">
-        <v>1697.183430080417</v>
+        <v>2196.141924826352</v>
       </c>
       <c r="V2" t="n">
-        <v>1697.183430080417</v>
+        <v>1833.524974760178</v>
       </c>
       <c r="W2" t="n">
-        <v>1292.327975491451</v>
+        <v>1428.669520171212</v>
       </c>
       <c r="X2" t="n">
-        <v>1277.225916111165</v>
+        <v>1009.527056750522</v>
       </c>
       <c r="Y2" t="n">
-        <v>1272.980196451223</v>
+        <v>601.2409330501757</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>540.1154135929012</v>
+        <v>555.2790295414795</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295435</v>
+        <v>448.8225683781218</v>
       </c>
       <c r="D3" t="n">
-        <v>338.5686635760967</v>
+        <v>353.7322795246751</v>
       </c>
       <c r="E3" t="n">
-        <v>244.4482489030504</v>
+        <v>259.6118648516288</v>
       </c>
       <c r="F3" t="n">
-        <v>161.0644105192121</v>
+        <v>176.2280264677904</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539593</v>
+        <v>90.84293673397423</v>
       </c>
       <c r="H3" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018671</v>
       </c>
       <c r="I3" t="n">
-        <v>60.00734176206595</v>
+        <v>75.1709577106443</v>
       </c>
       <c r="J3" t="n">
-        <v>384.5656667282782</v>
+        <v>399.7292826768566</v>
       </c>
       <c r="K3" t="n">
-        <v>804.6185656731816</v>
+        <v>1007.431928985417</v>
       </c>
       <c r="L3" t="n">
-        <v>1159.957753041174</v>
+        <v>1007.431928985417</v>
       </c>
       <c r="M3" t="n">
-        <v>1159.957753041174</v>
+        <v>1054.43532930258</v>
       </c>
       <c r="N3" t="n">
-        <v>1159.957753041174</v>
+        <v>1054.43532930258</v>
       </c>
       <c r="O3" t="n">
-        <v>1159.957753041174</v>
+        <v>1054.43532930258</v>
       </c>
       <c r="P3" t="n">
-        <v>1159.957753041174</v>
+        <v>1054.43532930258</v>
       </c>
       <c r="Q3" t="n">
-        <v>1580.010651986078</v>
+        <v>1595.174267934656</v>
       </c>
       <c r="R3" t="n">
-        <v>1697.183430080417</v>
+        <v>1712.347046028996</v>
       </c>
       <c r="S3" t="n">
-        <v>1633.7279925288</v>
+        <v>1648.891608477379</v>
       </c>
       <c r="T3" t="n">
-        <v>1503.549348859402</v>
+        <v>1518.71296480798</v>
       </c>
       <c r="U3" t="n">
-        <v>1327.21280185937</v>
+        <v>1342.376417807949</v>
       </c>
       <c r="V3" t="n">
-        <v>1128.09528392137</v>
+        <v>1143.258899869948</v>
       </c>
       <c r="W3" t="n">
-        <v>942.7725296545636</v>
+        <v>957.936145603142</v>
       </c>
       <c r="X3" t="n">
-        <v>787.9050938934436</v>
+        <v>803.0687098420219</v>
       </c>
       <c r="Y3" t="n">
-        <v>661.4193146726643</v>
+        <v>676.5829306212427</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>718.8484307043673</v>
+        <v>734.0120466529456</v>
       </c>
       <c r="C4" t="n">
-        <v>546.2867191875922</v>
+        <v>561.4503351361706</v>
       </c>
       <c r="D4" t="n">
-        <v>380.4087263891149</v>
+        <v>395.5723423376933</v>
       </c>
       <c r="E4" t="n">
-        <v>210.6507226398521</v>
+        <v>225.8143385884305</v>
       </c>
       <c r="F4" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018671</v>
       </c>
       <c r="G4" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018671</v>
       </c>
       <c r="H4" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018671</v>
       </c>
       <c r="I4" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018671</v>
       </c>
       <c r="J4" t="n">
-        <v>33.94366860160834</v>
+        <v>135.6869697148766</v>
       </c>
       <c r="K4" t="n">
-        <v>33.94366860160834</v>
+        <v>410.4454242860122</v>
       </c>
       <c r="L4" t="n">
-        <v>437.4083829648294</v>
+        <v>618.252639110322</v>
       </c>
       <c r="M4" t="n">
-        <v>857.4612819097326</v>
+        <v>1077.736506291235</v>
       </c>
       <c r="N4" t="n">
-        <v>1277.514180854636</v>
+        <v>1519.995309448879</v>
       </c>
       <c r="O4" t="n">
-        <v>1697.183430080417</v>
+        <v>1939.664558674661</v>
       </c>
       <c r="P4" t="n">
-        <v>1697.183430080417</v>
+        <v>2287.171452645003</v>
       </c>
       <c r="Q4" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509335</v>
       </c>
       <c r="R4" t="n">
-        <v>1697.183430080417</v>
+        <v>2433.946406214707</v>
       </c>
       <c r="S4" t="n">
-        <v>1697.183430080417</v>
+        <v>2274.705037512704</v>
       </c>
       <c r="T4" t="n">
-        <v>1697.183430080417</v>
+        <v>2028.825591091159</v>
       </c>
       <c r="U4" t="n">
-        <v>1697.183430080417</v>
+        <v>1750.392590344264</v>
       </c>
       <c r="V4" t="n">
-        <v>1655.504879189542</v>
+        <v>1463.437082214695</v>
       </c>
       <c r="W4" t="n">
-        <v>1383.478474775834</v>
+        <v>1191.410677800986</v>
       </c>
       <c r="X4" t="n">
-        <v>1138.086720109246</v>
+        <v>946.0189231343986</v>
       </c>
       <c r="Y4" t="n">
-        <v>910.6670494233545</v>
+        <v>925.8306653719328</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>358.9883481097479</v>
+        <v>1267.502422415565</v>
       </c>
       <c r="C5" t="n">
-        <v>119.7912051113087</v>
+        <v>1233.400353639393</v>
       </c>
       <c r="D5" t="n">
-        <v>87.92182432615731</v>
+        <v>1201.530972854241</v>
       </c>
       <c r="E5" t="n">
-        <v>58.18748352485655</v>
+        <v>1171.796632052941</v>
       </c>
       <c r="F5" t="n">
-        <v>34.36045797446834</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="G5" t="n">
-        <v>34.36045797446834</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="H5" t="n">
-        <v>34.36045797446834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
-        <v>33.94366860160834</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K5" t="n">
-        <v>453.9965675465116</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L5" t="n">
-        <v>453.9965675465116</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M5" t="n">
-        <v>453.9965675465116</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N5" t="n">
-        <v>453.9965675465116</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O5" t="n">
-        <v>687.9235674375537</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.976466382457</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>1613.531556264254</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T5" t="n">
-        <v>1613.531556264254</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="U5" t="n">
-        <v>1613.531556264254</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="V5" t="n">
-        <v>1613.531556264254</v>
+        <v>2087.376649238293</v>
       </c>
       <c r="W5" t="n">
-        <v>1208.676101675288</v>
+        <v>1682.521194649326</v>
       </c>
       <c r="X5" t="n">
-        <v>1193.574042295002</v>
+        <v>1294.007308520012</v>
       </c>
       <c r="Y5" t="n">
-        <v>785.2879185946557</v>
+        <v>1289.761588860069</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>33.94366860160834</v>
+        <v>762.8950539462403</v>
       </c>
       <c r="C7" t="n">
-        <v>33.94366860160834</v>
+        <v>590.3333424294652</v>
       </c>
       <c r="D7" t="n">
-        <v>33.94366860160834</v>
+        <v>424.4553496309879</v>
       </c>
       <c r="E7" t="n">
-        <v>33.94366860160834</v>
+        <v>254.6973458817252</v>
       </c>
       <c r="F7" t="n">
-        <v>33.94366860160834</v>
+        <v>77.9902918434814</v>
       </c>
       <c r="G7" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H7" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J7" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K7" t="n">
-        <v>33.94366860160834</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L7" t="n">
-        <v>437.4083829648294</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M7" t="n">
-        <v>857.4612819097326</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N7" t="n">
-        <v>1277.514180854636</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O7" t="n">
-        <v>1697.183430080417</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P7" t="n">
-        <v>1697.183430080417</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S7" t="n">
-        <v>1697.183430080417</v>
+        <v>2510.819457729424</v>
       </c>
       <c r="T7" t="n">
-        <v>1451.303983658873</v>
+        <v>2264.94001130788</v>
       </c>
       <c r="U7" t="n">
-        <v>1172.870982911978</v>
+        <v>1986.507010560985</v>
       </c>
       <c r="V7" t="n">
-        <v>885.9154747824084</v>
+        <v>1699.551502431415</v>
       </c>
       <c r="W7" t="n">
-        <v>613.8890703687</v>
+        <v>1427.525098017707</v>
       </c>
       <c r="X7" t="n">
-        <v>368.4973157021125</v>
+        <v>1182.133343351119</v>
       </c>
       <c r="Y7" t="n">
-        <v>141.0776450162207</v>
+        <v>954.7136726652275</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1796.174776892348</v>
+        <v>2076.000019869234</v>
       </c>
       <c r="C8" t="n">
-        <v>1736.138515466162</v>
+        <v>2041.897951093061</v>
       </c>
       <c r="D8" t="n">
-        <v>1300.228730640606</v>
+        <v>1605.988166267505</v>
       </c>
       <c r="E8" t="n">
-        <v>866.4539857989012</v>
+        <v>1172.213421425801</v>
       </c>
       <c r="F8" t="n">
-        <v>438.586556208109</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="G8" t="n">
-        <v>37.18872483137284</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H8" t="n">
-        <v>37.18872483137284</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
-        <v>36.77193545851284</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>36.77193545851284</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>36.77193545851284</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L8" t="n">
-        <v>36.77193545851284</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M8" t="n">
-        <v>36.77193545851284</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N8" t="n">
-        <v>304.284604275296</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O8" t="n">
-        <v>759.3373055743924</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P8" t="n">
-        <v>1214.390006873489</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q8" t="n">
-        <v>1669.442708172585</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
-        <v>1838.596772925642</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1838.596772925642</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>1838.596772925642</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U8" t="n">
-        <v>1838.596772925642</v>
+        <v>2118.422015902528</v>
       </c>
       <c r="V8" t="n">
-        <v>1838.596772925642</v>
+        <v>2118.422015902528</v>
       </c>
       <c r="W8" t="n">
-        <v>1837.78172237708</v>
+        <v>2117.606965353965</v>
       </c>
       <c r="X8" t="n">
-        <v>1822.679662996794</v>
+        <v>2102.50490597368</v>
       </c>
       <c r="Y8" t="n">
-        <v>1818.433943336852</v>
+        <v>2098.259186313737</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>542.9436804498056</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>436.4872192864479</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>341.3969304330012</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>247.2765157599549</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>163.8926773761165</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>78.50758764230036</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>36.77193545851284</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>62.83560861897044</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>387.3939335851828</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>842.4466348842792</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L9" t="n">
-        <v>1127.786217543885</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M9" t="n">
-        <v>1127.786217543885</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N9" t="n">
-        <v>1127.786217543885</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O9" t="n">
-        <v>1127.786217543885</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P9" t="n">
-        <v>1127.786217543885</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1582.838918842982</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1700.011696937322</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1636.556259385705</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1506.377615716306</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1330.041068716275</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1130.923550778274</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>945.6007965114679</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>790.733360750348</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>664.2475815295687</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>901.9403244404673</v>
+        <v>762.8950539462408</v>
       </c>
       <c r="C10" t="n">
-        <v>729.3786129236922</v>
+        <v>590.3333424294657</v>
       </c>
       <c r="D10" t="n">
-        <v>563.5006201252149</v>
+        <v>424.4553496309884</v>
       </c>
       <c r="E10" t="n">
-        <v>393.7426163759522</v>
+        <v>254.6973458817257</v>
       </c>
       <c r="F10" t="n">
-        <v>291.0231596580098</v>
+        <v>77.99029184348186</v>
       </c>
       <c r="G10" t="n">
-        <v>125.4318846838375</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H10" t="n">
-        <v>125.4318846838375</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I10" t="n">
-        <v>36.77193545851284</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>36.77193545851284</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>36.77193545851284</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>454.9818172264739</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>910.0345185255703</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1071.420629729519</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1491.0898789553</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1838.596772925642</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1838.596772925642</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1838.596772925642</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S10" t="n">
-        <v>1838.596772925642</v>
+        <v>2510.819457729425</v>
       </c>
       <c r="T10" t="n">
-        <v>1838.596772925642</v>
+        <v>2264.94001130788</v>
       </c>
       <c r="U10" t="n">
-        <v>1838.596772925642</v>
+        <v>1986.507010560985</v>
       </c>
       <c r="V10" t="n">
-        <v>1838.596772925642</v>
+        <v>1699.551502431416</v>
       </c>
       <c r="W10" t="n">
-        <v>1566.570368511934</v>
+        <v>1427.525098017707</v>
       </c>
       <c r="X10" t="n">
-        <v>1321.178613845346</v>
+        <v>1182.13334335112</v>
       </c>
       <c r="Y10" t="n">
-        <v>1093.758943159454</v>
+        <v>954.7136726652279</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5018,7 @@
         <v>2522.958394689264</v>
       </c>
       <c r="C11" t="n">
-        <v>2084.815921872687</v>
+        <v>2084.815921872688</v>
       </c>
       <c r="D11" t="n">
         <v>1648.906137047132</v>
@@ -5033,55 +5033,55 @@
         <v>385.8661312378989</v>
       </c>
       <c r="H11" t="n">
-        <v>96.73597668111516</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="I11" t="n">
-        <v>96.73597668111516</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="J11" t="n">
-        <v>521.7292312988361</v>
+        <v>531.9906641340331</v>
       </c>
       <c r="K11" t="n">
-        <v>1356.079523257014</v>
+        <v>1366.340956092211</v>
       </c>
       <c r="L11" t="n">
-        <v>1356.079523257014</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="M11" t="n">
-        <v>1356.079523257014</v>
+        <v>2481.810506693463</v>
       </c>
       <c r="N11" t="n">
-        <v>2481.810506693461</v>
+        <v>2481.810506693463</v>
       </c>
       <c r="O11" t="n">
-        <v>3461.990173263767</v>
+        <v>3461.990173263769</v>
       </c>
       <c r="P11" t="n">
-        <v>4290.300048097163</v>
+        <v>4290.300048097165</v>
       </c>
       <c r="Q11" t="n">
-        <v>4836.798834055758</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="R11" t="n">
-        <v>4836.798834055758</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="S11" t="n">
-        <v>4753.146960239595</v>
+        <v>4753.146960239596</v>
       </c>
       <c r="T11" t="n">
-        <v>4533.079733112633</v>
+        <v>4533.079733112635</v>
       </c>
       <c r="U11" t="n">
-        <v>4273.85743042965</v>
+        <v>4273.857430429652</v>
       </c>
       <c r="V11" t="n">
-        <v>4181.542006884174</v>
+        <v>3911.240480363478</v>
       </c>
       <c r="W11" t="n">
         <v>3776.686552295208</v>
       </c>
       <c r="X11" t="n">
-        <v>3357.544088874518</v>
+        <v>3357.544088874519</v>
       </c>
       <c r="Y11" t="n">
         <v>2949.257965174172</v>
@@ -5112,7 +5112,7 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H12" t="n">
-        <v>96.73597668111516</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="I12" t="n">
         <v>122.7996498415728</v>
@@ -5121,19 +5121,19 @@
         <v>447.3579748077851</v>
       </c>
       <c r="K12" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="L12" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="M12" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="N12" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="O12" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="P12" t="n">
         <v>1102.064021433509</v>
@@ -5173,40 +5173,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>947.2320137580464</v>
+        <v>1087.134188067672</v>
       </c>
       <c r="C13" t="n">
-        <v>774.6703022412713</v>
+        <v>914.5724765508968</v>
       </c>
       <c r="D13" t="n">
-        <v>608.792309442794</v>
+        <v>748.6944837524195</v>
       </c>
       <c r="E13" t="n">
-        <v>439.0343056935313</v>
+        <v>578.9364800031568</v>
       </c>
       <c r="F13" t="n">
-        <v>262.3272516552875</v>
+        <v>402.229425964913</v>
       </c>
       <c r="G13" t="n">
-        <v>96.73597668111516</v>
+        <v>236.6381509907407</v>
       </c>
       <c r="H13" t="n">
-        <v>96.73597668111516</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="I13" t="n">
-        <v>96.73597668111516</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="J13" t="n">
-        <v>183.315661845805</v>
+        <v>183.3156618458051</v>
       </c>
       <c r="K13" t="n">
         <v>458.0741164169406</v>
       </c>
       <c r="L13" t="n">
-        <v>876.2839981849016</v>
+        <v>876.2839981849017</v>
       </c>
       <c r="M13" t="n">
-        <v>1335.767865365814</v>
+        <v>1335.767865365815</v>
       </c>
       <c r="N13" t="n">
         <v>1778.026668523459</v>
@@ -5224,25 +5224,25 @@
         <v>2713.395586583915</v>
       </c>
       <c r="S13" t="n">
-        <v>2695.15641754123</v>
+        <v>2554.154217881911</v>
       </c>
       <c r="T13" t="n">
-        <v>2449.276971119686</v>
+        <v>2554.154217881911</v>
       </c>
       <c r="U13" t="n">
-        <v>2170.843970372791</v>
+        <v>2275.721217135017</v>
       </c>
       <c r="V13" t="n">
-        <v>1883.888462243221</v>
+        <v>1988.765709005447</v>
       </c>
       <c r="W13" t="n">
-        <v>1611.862057829513</v>
+        <v>1716.739304591739</v>
       </c>
       <c r="X13" t="n">
-        <v>1366.470303162925</v>
+        <v>1471.347549925151</v>
       </c>
       <c r="Y13" t="n">
-        <v>1139.050632477034</v>
+        <v>1278.952806786659</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2472.724095295528</v>
+        <v>2522.958394689265</v>
       </c>
       <c r="C14" t="n">
-        <v>2034.58162247895</v>
+        <v>2084.815921872688</v>
       </c>
       <c r="D14" t="n">
-        <v>1598.671837653395</v>
+        <v>1648.906137047133</v>
       </c>
       <c r="E14" t="n">
-        <v>1164.89709281169</v>
+        <v>1215.131392205428</v>
       </c>
       <c r="F14" t="n">
-        <v>737.0296632208974</v>
+        <v>787.2639626146356</v>
       </c>
       <c r="G14" t="n">
-        <v>335.6318318441613</v>
+        <v>385.866131237899</v>
       </c>
       <c r="H14" t="n">
-        <v>97.15276605397516</v>
+        <v>96.7359766811152</v>
       </c>
       <c r="I14" t="n">
-        <v>96.73597668111516</v>
+        <v>96.7359766811152</v>
       </c>
       <c r="J14" t="n">
-        <v>403.2461837293665</v>
+        <v>531.9906641340331</v>
       </c>
       <c r="K14" t="n">
-        <v>1237.596475687544</v>
+        <v>1366.340956092211</v>
       </c>
       <c r="L14" t="n">
-        <v>2312.656441940404</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="M14" t="n">
-        <v>2312.656441940404</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="N14" t="n">
-        <v>2312.656441940404</v>
+        <v>2481.810506693464</v>
       </c>
       <c r="O14" t="n">
-        <v>3292.83610851071</v>
+        <v>3461.99017326377</v>
       </c>
       <c r="P14" t="n">
-        <v>4121.145983344106</v>
+        <v>4290.300048097166</v>
       </c>
       <c r="Q14" t="n">
-        <v>4667.644769302701</v>
+        <v>4836.79883405576</v>
       </c>
       <c r="R14" t="n">
-        <v>4836.798834055758</v>
+        <v>4836.79883405576</v>
       </c>
       <c r="S14" t="n">
-        <v>4753.146960239595</v>
+        <v>4764.22618407731</v>
       </c>
       <c r="T14" t="n">
-        <v>4753.146960239595</v>
+        <v>4544.158956950349</v>
       </c>
       <c r="U14" t="n">
-        <v>4493.924657556611</v>
+        <v>4544.158956950349</v>
       </c>
       <c r="V14" t="n">
-        <v>4131.307707490438</v>
+        <v>4181.542006884175</v>
       </c>
       <c r="W14" t="n">
-        <v>3726.452252901471</v>
+        <v>3776.686552295208</v>
       </c>
       <c r="X14" t="n">
-        <v>3307.309789480782</v>
+        <v>3357.544088874519</v>
       </c>
       <c r="Y14" t="n">
-        <v>2899.023665780435</v>
+        <v>2949.257965174173</v>
       </c>
     </row>
     <row r="15">
@@ -5349,28 +5349,28 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H15" t="n">
-        <v>96.73597668111516</v>
+        <v>96.7359766811152</v>
       </c>
       <c r="I15" t="n">
         <v>122.7996498415728</v>
       </c>
       <c r="J15" t="n">
-        <v>447.3579748077851</v>
+        <v>447.3579748077852</v>
       </c>
       <c r="K15" t="n">
-        <v>447.3579748077851</v>
+        <v>447.3579748077852</v>
       </c>
       <c r="L15" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077852</v>
       </c>
       <c r="M15" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077852</v>
       </c>
       <c r="N15" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077852</v>
       </c>
       <c r="O15" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077852</v>
       </c>
       <c r="P15" t="n">
         <v>1102.064021433509</v>
@@ -5410,40 +5410,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>806.229814098727</v>
+        <v>999.0870832547528</v>
       </c>
       <c r="C16" t="n">
-        <v>660.9340967638054</v>
+        <v>826.5253717379777</v>
       </c>
       <c r="D16" t="n">
-        <v>495.0561039653281</v>
+        <v>660.6473789395004</v>
       </c>
       <c r="E16" t="n">
-        <v>325.2981002160653</v>
+        <v>490.8893751902377</v>
       </c>
       <c r="F16" t="n">
-        <v>325.2981002160653</v>
+        <v>490.8893751902377</v>
       </c>
       <c r="G16" t="n">
-        <v>325.2981002160653</v>
+        <v>325.2981002160654</v>
       </c>
       <c r="H16" t="n">
-        <v>185.3959259064398</v>
+        <v>185.3959259064399</v>
       </c>
       <c r="I16" t="n">
-        <v>96.73597668111516</v>
+        <v>96.7359766811152</v>
       </c>
       <c r="J16" t="n">
-        <v>183.315661845805</v>
+        <v>183.3156618458051</v>
       </c>
       <c r="K16" t="n">
         <v>458.0741164169406</v>
       </c>
       <c r="L16" t="n">
-        <v>876.2839981849016</v>
+        <v>876.2839981849017</v>
       </c>
       <c r="M16" t="n">
-        <v>1335.767865365814</v>
+        <v>1335.767865365815</v>
       </c>
       <c r="N16" t="n">
         <v>1778.026668523459</v>
@@ -5458,28 +5458,28 @@
         <v>2713.395586583915</v>
       </c>
       <c r="R16" t="n">
-        <v>2713.395586583915</v>
+        <v>2691.977765289286</v>
       </c>
       <c r="S16" t="n">
-        <v>2554.154217881911</v>
+        <v>2532.736396587283</v>
       </c>
       <c r="T16" t="n">
-        <v>2308.274771460366</v>
+        <v>2286.856950165738</v>
       </c>
       <c r="U16" t="n">
-        <v>2029.841770713472</v>
+        <v>2222.699039869497</v>
       </c>
       <c r="V16" t="n">
-        <v>1742.886262583902</v>
+        <v>1935.743531739927</v>
       </c>
       <c r="W16" t="n">
-        <v>1470.859858170194</v>
+        <v>1663.717127326219</v>
       </c>
       <c r="X16" t="n">
-        <v>1225.468103503606</v>
+        <v>1418.325372659632</v>
       </c>
       <c r="Y16" t="n">
-        <v>998.0484328177142</v>
+        <v>1190.90570197374</v>
       </c>
     </row>
     <row r="17">
@@ -5489,28 +5489,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2522.958394689264</v>
+        <v>2523.375184062124</v>
       </c>
       <c r="C17" t="n">
-        <v>2084.815921872687</v>
+        <v>2085.232711245548</v>
       </c>
       <c r="D17" t="n">
-        <v>1648.906137047132</v>
+        <v>1649.322926419992</v>
       </c>
       <c r="E17" t="n">
-        <v>1215.131392205427</v>
+        <v>1215.548181578287</v>
       </c>
       <c r="F17" t="n">
-        <v>787.2639626146349</v>
+        <v>787.6807519874951</v>
       </c>
       <c r="G17" t="n">
-        <v>385.8661312378989</v>
+        <v>386.282920610759</v>
       </c>
       <c r="H17" t="n">
-        <v>96.73597668111516</v>
+        <v>97.1527660539752</v>
       </c>
       <c r="I17" t="n">
-        <v>96.73597668111516</v>
+        <v>96.7359766811152</v>
       </c>
       <c r="J17" t="n">
         <v>531.9906641340331</v>
@@ -5531,34 +5531,34 @@
         <v>3421.580588915377</v>
       </c>
       <c r="P17" t="n">
-        <v>4121.145983344106</v>
+        <v>4249.890463748773</v>
       </c>
       <c r="Q17" t="n">
-        <v>4667.644769302701</v>
+        <v>4796.389249707368</v>
       </c>
       <c r="R17" t="n">
-        <v>4836.798834055758</v>
+        <v>4836.79883405576</v>
       </c>
       <c r="S17" t="n">
-        <v>4836.798834055758</v>
+        <v>4803.798049006191</v>
       </c>
       <c r="T17" t="n">
-        <v>4803.381259633332</v>
+        <v>4803.798049006191</v>
       </c>
       <c r="U17" t="n">
-        <v>4544.158956950349</v>
+        <v>4544.575746323208</v>
       </c>
       <c r="V17" t="n">
-        <v>4181.542006884175</v>
+        <v>4181.958796257034</v>
       </c>
       <c r="W17" t="n">
-        <v>3776.686552295208</v>
+        <v>3777.103341668068</v>
       </c>
       <c r="X17" t="n">
-        <v>3357.544088874519</v>
+        <v>3357.960878247378</v>
       </c>
       <c r="Y17" t="n">
-        <v>2949.257965174172</v>
+        <v>2949.674754547032</v>
       </c>
     </row>
     <row r="18">
@@ -5586,13 +5586,13 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H18" t="n">
-        <v>96.73597668111516</v>
+        <v>96.7359766811152</v>
       </c>
       <c r="I18" t="n">
         <v>122.7996498415728</v>
       </c>
       <c r="J18" t="n">
-        <v>447.3579748077851</v>
+        <v>447.3579748077852</v>
       </c>
       <c r="K18" t="n">
         <v>1102.064021433509</v>
@@ -5647,40 +5647,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1175.794137292997</v>
+        <v>784.811992804099</v>
       </c>
       <c r="C19" t="n">
-        <v>1003.232425776221</v>
+        <v>784.811992804099</v>
       </c>
       <c r="D19" t="n">
-        <v>837.3544329777442</v>
+        <v>618.9340000056217</v>
       </c>
       <c r="E19" t="n">
-        <v>667.5964292284814</v>
+        <v>449.1759962563589</v>
       </c>
       <c r="F19" t="n">
-        <v>490.8893751902377</v>
+        <v>272.4689422181151</v>
       </c>
       <c r="G19" t="n">
-        <v>325.2981002160653</v>
+        <v>106.8776672439427</v>
       </c>
       <c r="H19" t="n">
-        <v>185.3959259064398</v>
+        <v>106.8776672439427</v>
       </c>
       <c r="I19" t="n">
-        <v>96.73597668111516</v>
+        <v>96.7359766811152</v>
       </c>
       <c r="J19" t="n">
-        <v>183.315661845805</v>
+        <v>183.3156618458051</v>
       </c>
       <c r="K19" t="n">
         <v>458.0741164169406</v>
       </c>
       <c r="L19" t="n">
-        <v>876.2839981849016</v>
+        <v>876.2839981849017</v>
       </c>
       <c r="M19" t="n">
-        <v>1335.767865365814</v>
+        <v>1335.767865365815</v>
       </c>
       <c r="N19" t="n">
         <v>1778.026668523459</v>
@@ -5695,28 +5695,28 @@
         <v>2713.395586583915</v>
       </c>
       <c r="R19" t="n">
-        <v>2713.395586583915</v>
+        <v>2691.977765289286</v>
       </c>
       <c r="S19" t="n">
-        <v>2554.154217881911</v>
+        <v>2532.736396587283</v>
       </c>
       <c r="T19" t="n">
-        <v>2308.274771460366</v>
+        <v>2286.856950165738</v>
       </c>
       <c r="U19" t="n">
-        <v>2029.841770713471</v>
+        <v>2008.423949418843</v>
       </c>
       <c r="V19" t="n">
-        <v>1742.886262583902</v>
+        <v>1721.468441289274</v>
       </c>
       <c r="W19" t="n">
-        <v>1470.859858170194</v>
+        <v>1449.442036875565</v>
       </c>
       <c r="X19" t="n">
-        <v>1225.468103503606</v>
+        <v>1204.050282208978</v>
       </c>
       <c r="Y19" t="n">
-        <v>1225.468103503606</v>
+        <v>976.6306115230861</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2522.958394689264</v>
+        <v>2523.375184062124</v>
       </c>
       <c r="C20" t="n">
-        <v>2084.815921872688</v>
+        <v>2085.232711245548</v>
       </c>
       <c r="D20" t="n">
-        <v>1648.906137047132</v>
+        <v>1649.322926419992</v>
       </c>
       <c r="E20" t="n">
-        <v>1215.131392205427</v>
+        <v>1215.548181578287</v>
       </c>
       <c r="F20" t="n">
-        <v>787.263962614635</v>
+        <v>787.6807519874951</v>
       </c>
       <c r="G20" t="n">
-        <v>385.8661312378989</v>
+        <v>386.282920610759</v>
       </c>
       <c r="H20" t="n">
-        <v>96.73597668111516</v>
+        <v>97.1527660539752</v>
       </c>
       <c r="I20" t="n">
-        <v>96.73597668111516</v>
+        <v>96.7359766811152</v>
       </c>
       <c r="J20" t="n">
         <v>531.9906641340331</v>
       </c>
       <c r="K20" t="n">
-        <v>1366.340956092211</v>
+        <v>1237.596475687548</v>
       </c>
       <c r="L20" t="n">
-        <v>1366.340956092211</v>
+        <v>2312.656441940407</v>
       </c>
       <c r="M20" t="n">
-        <v>1366.340956092211</v>
+        <v>2312.656441940407</v>
       </c>
       <c r="N20" t="n">
-        <v>2312.656441940404</v>
+        <v>2312.656441940407</v>
       </c>
       <c r="O20" t="n">
-        <v>3292.83610851071</v>
+        <v>3292.836108510714</v>
       </c>
       <c r="P20" t="n">
-        <v>4121.145983344106</v>
+        <v>4121.145983344109</v>
       </c>
       <c r="Q20" t="n">
-        <v>4667.644769302701</v>
+        <v>4667.644769302704</v>
       </c>
       <c r="R20" t="n">
-        <v>4836.798834055758</v>
+        <v>4836.79883405576</v>
       </c>
       <c r="S20" t="n">
-        <v>4753.146960239595</v>
+        <v>4753.146960239597</v>
       </c>
       <c r="T20" t="n">
-        <v>4533.079733112633</v>
+        <v>4533.079733112636</v>
       </c>
       <c r="U20" t="n">
-        <v>4273.85743042965</v>
+        <v>4273.857430429653</v>
       </c>
       <c r="V20" t="n">
-        <v>3911.240480363476</v>
+        <v>3911.240480363479</v>
       </c>
       <c r="W20" t="n">
-        <v>3776.686552295208</v>
+        <v>3506.385025774513</v>
       </c>
       <c r="X20" t="n">
-        <v>3357.544088874518</v>
+        <v>3087.242562353823</v>
       </c>
       <c r="Y20" t="n">
-        <v>2949.257965174172</v>
+        <v>2678.956438653477</v>
       </c>
     </row>
     <row r="21">
@@ -5823,13 +5823,13 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H21" t="n">
-        <v>96.73597668111516</v>
+        <v>96.7359766811152</v>
       </c>
       <c r="I21" t="n">
         <v>122.7996498415728</v>
       </c>
       <c r="J21" t="n">
-        <v>447.3579748077851</v>
+        <v>447.3579748077852</v>
       </c>
       <c r="K21" t="n">
         <v>1102.064021433509</v>
@@ -5884,40 +5884,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>944.0533615061024</v>
+        <v>784.8119928040991</v>
       </c>
       <c r="C22" t="n">
-        <v>771.4916499893274</v>
+        <v>612.250281287324</v>
       </c>
       <c r="D22" t="n">
-        <v>605.6136571908501</v>
+        <v>446.3722884888465</v>
       </c>
       <c r="E22" t="n">
-        <v>578.9364800031568</v>
+        <v>446.3722884888465</v>
       </c>
       <c r="F22" t="n">
-        <v>402.229425964913</v>
+        <v>325.2981002160653</v>
       </c>
       <c r="G22" t="n">
-        <v>236.6381509907407</v>
+        <v>325.2981002160653</v>
       </c>
       <c r="H22" t="n">
-        <v>96.73597668111516</v>
+        <v>185.3959259064399</v>
       </c>
       <c r="I22" t="n">
-        <v>96.73597668111516</v>
+        <v>96.7359766811152</v>
       </c>
       <c r="J22" t="n">
-        <v>183.315661845805</v>
+        <v>183.3156618458051</v>
       </c>
       <c r="K22" t="n">
         <v>458.0741164169406</v>
       </c>
       <c r="L22" t="n">
-        <v>876.2839981849016</v>
+        <v>876.2839981849017</v>
       </c>
       <c r="M22" t="n">
-        <v>1335.767865365814</v>
+        <v>1335.767865365815</v>
       </c>
       <c r="N22" t="n">
         <v>1778.026668523459</v>
@@ -5932,28 +5932,28 @@
         <v>2713.395586583915</v>
       </c>
       <c r="R22" t="n">
-        <v>2691.977765289287</v>
+        <v>2691.977765289286</v>
       </c>
       <c r="S22" t="n">
-        <v>2691.977765289287</v>
+        <v>2532.736396587283</v>
       </c>
       <c r="T22" t="n">
-        <v>2446.098318867741</v>
+        <v>2286.856950165738</v>
       </c>
       <c r="U22" t="n">
-        <v>2167.665318120847</v>
+        <v>2008.423949418843</v>
       </c>
       <c r="V22" t="n">
-        <v>1880.709809991277</v>
+        <v>1721.468441289274</v>
       </c>
       <c r="W22" t="n">
-        <v>1608.683405577569</v>
+        <v>1449.442036875565</v>
       </c>
       <c r="X22" t="n">
-        <v>1363.291650910981</v>
+        <v>1204.050282208978</v>
       </c>
       <c r="Y22" t="n">
-        <v>1135.87198022509</v>
+        <v>976.6306115230861</v>
       </c>
     </row>
     <row r="23">
@@ -6181,7 +6181,7 @@
         <v>2176.368833962455</v>
       </c>
       <c r="V25" t="n">
-        <v>1889.413325832886</v>
+        <v>1889.413325832885</v>
       </c>
       <c r="W25" t="n">
         <v>1617.386921419177</v>
@@ -6224,28 +6224,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K26" t="n">
-        <v>1371.865819681875</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L26" t="n">
-        <v>2446.925785934734</v>
+        <v>1632.322702740236</v>
       </c>
       <c r="M26" t="n">
-        <v>2588.899621423627</v>
+        <v>1632.322702740236</v>
       </c>
       <c r="N26" t="n">
-        <v>2588.899621423627</v>
+        <v>2758.053686176683</v>
       </c>
       <c r="O26" t="n">
-        <v>3569.079287993933</v>
+        <v>3738.23335274699</v>
       </c>
       <c r="P26" t="n">
-        <v>4397.38916282733</v>
+        <v>4566.543227580386</v>
       </c>
       <c r="Q26" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>920.0973401405612</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C28" t="n">
-        <v>920.0973401405612</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D28" t="n">
-        <v>754.2193473420839</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E28" t="n">
-        <v>584.4613435928212</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F28" t="n">
-        <v>407.7542895545774</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G28" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H28" t="n">
         <v>102.2608402707796</v>
@@ -6409,25 +6409,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T28" t="n">
-        <v>2422.142297502201</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U28" t="n">
-        <v>2143.709296755306</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V28" t="n">
-        <v>1856.753788625736</v>
+        <v>1889.413325832885</v>
       </c>
       <c r="W28" t="n">
-        <v>1584.727384212028</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X28" t="n">
-        <v>1339.33562954544</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y28" t="n">
-        <v>1111.915958859548</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="29">
@@ -6461,28 +6461,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K29" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L29" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M29" t="n">
-        <v>2446.925785934734</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N29" t="n">
-        <v>2588.899621423627</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O29" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P29" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q29" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1057.14643235498</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="C31" t="n">
-        <v>920.0973401405612</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="D31" t="n">
-        <v>754.2193473420839</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E31" t="n">
-        <v>584.4613435928212</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F31" t="n">
-        <v>407.7542895545774</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G31" t="n">
-        <v>242.1630145804051</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H31" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I31" t="n">
         <v>102.2608402707796</v>
@@ -6643,28 +6643,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S31" t="n">
-        <v>2559.679081471576</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T31" t="n">
-        <v>2313.799635050031</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U31" t="n">
-        <v>2035.366634303137</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.411126173567</v>
+        <v>1726.993304878939</v>
       </c>
       <c r="W31" t="n">
-        <v>1476.384721759859</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X31" t="n">
-        <v>1476.384721759859</v>
+        <v>1209.575145798643</v>
       </c>
       <c r="Y31" t="n">
-        <v>1248.965051073967</v>
+        <v>1034.697915286396</v>
       </c>
     </row>
     <row r="32">
@@ -6698,28 +6698,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K32" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L32" t="n">
-        <v>1632.322702740236</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M32" t="n">
-        <v>1632.322702740236</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N32" t="n">
-        <v>2758.053686176683</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O32" t="n">
-        <v>3738.23335274699</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P32" t="n">
-        <v>4566.543227580386</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q32" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>952.7568773477109</v>
+        <v>1057.634124109937</v>
       </c>
       <c r="C34" t="n">
-        <v>780.1951658309357</v>
+        <v>885.0724125931616</v>
       </c>
       <c r="D34" t="n">
-        <v>614.3171730324584</v>
+        <v>719.1944197946843</v>
       </c>
       <c r="E34" t="n">
-        <v>444.5591692831957</v>
+        <v>549.4364160454217</v>
       </c>
       <c r="F34" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G34" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H34" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I34" t="n">
         <v>102.2608402707796</v>
@@ -6883,25 +6883,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T34" t="n">
-        <v>2454.80183470935</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="U34" t="n">
-        <v>2176.368833962455</v>
+        <v>2281.246080724681</v>
       </c>
       <c r="V34" t="n">
-        <v>1889.413325832886</v>
+        <v>1994.290572595111</v>
       </c>
       <c r="W34" t="n">
-        <v>1617.386921419177</v>
+        <v>1722.264168181403</v>
       </c>
       <c r="X34" t="n">
-        <v>1371.99516675259</v>
+        <v>1476.872413514815</v>
       </c>
       <c r="Y34" t="n">
-        <v>1144.575496066698</v>
+        <v>1249.452742828924</v>
       </c>
     </row>
     <row r="35">
@@ -6923,13 +6923,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771594</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
@@ -6938,25 +6938,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K35" t="n">
-        <v>775.0235620688169</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L35" t="n">
-        <v>1850.083528321676</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M35" t="n">
-        <v>3007.131363532227</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="N35" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O35" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P35" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q35" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R35" t="n">
         <v>5113.04201353898</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>952.7568773477109</v>
+        <v>1015.727725908489</v>
       </c>
       <c r="C37" t="n">
-        <v>780.1951658309358</v>
+        <v>843.1660143917137</v>
       </c>
       <c r="D37" t="n">
-        <v>614.3171730324585</v>
+        <v>677.2880215932364</v>
       </c>
       <c r="E37" t="n">
-        <v>444.5591692831958</v>
+        <v>507.5300178439736</v>
       </c>
       <c r="F37" t="n">
-        <v>267.852115244952</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="G37" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H37" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I37" t="n">
         <v>102.2608402707796</v>
@@ -7117,28 +7117,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S37" t="n">
-        <v>2700.681281130895</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T37" t="n">
-        <v>2454.80183470935</v>
+        <v>2517.772683270128</v>
       </c>
       <c r="U37" t="n">
-        <v>2176.368833962455</v>
+        <v>2239.339682523233</v>
       </c>
       <c r="V37" t="n">
-        <v>1889.413325832886</v>
+        <v>1952.384174393664</v>
       </c>
       <c r="W37" t="n">
-        <v>1617.386921419177</v>
+        <v>1680.357769979955</v>
       </c>
       <c r="X37" t="n">
-        <v>1371.99516675259</v>
+        <v>1434.966015313368</v>
       </c>
       <c r="Y37" t="n">
-        <v>1144.575496066698</v>
+        <v>1207.546344627476</v>
       </c>
     </row>
     <row r="38">
@@ -7160,13 +7160,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
@@ -7181,7 +7181,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M38" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N38" t="n">
         <v>2588.899621423627</v>
@@ -7205,19 +7205,19 @@
         <v>4809.322912595856</v>
       </c>
       <c r="U38" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V38" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W38" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="39">
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>811.7546776883922</v>
+        <v>834.8539430951545</v>
       </c>
       <c r="C40" t="n">
-        <v>780.1951658309358</v>
+        <v>662.2922315783794</v>
       </c>
       <c r="D40" t="n">
-        <v>614.3171730324585</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="E40" t="n">
-        <v>444.5591692831958</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="F40" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G40" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057297</v>
       </c>
       <c r="H40" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I40" t="n">
         <v>102.2608402707796</v>
@@ -7354,28 +7354,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S40" t="n">
-        <v>2559.679081471576</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T40" t="n">
-        <v>2313.799635050032</v>
+        <v>2336.898900456793</v>
       </c>
       <c r="U40" t="n">
-        <v>2035.366634303137</v>
+        <v>2058.465899709899</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.411126173567</v>
+        <v>1771.510391580329</v>
       </c>
       <c r="W40" t="n">
-        <v>1476.384721759859</v>
+        <v>1499.483987166621</v>
       </c>
       <c r="X40" t="n">
-        <v>1230.992967093271</v>
+        <v>1254.092232500033</v>
       </c>
       <c r="Y40" t="n">
-        <v>1003.573296407379</v>
+        <v>1026.672561814142</v>
       </c>
     </row>
     <row r="41">
@@ -7391,7 +7391,7 @@
         <v>2090.757574835212</v>
       </c>
       <c r="D41" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009656</v>
       </c>
       <c r="E41" t="n">
         <v>1221.073045167952</v>
@@ -7409,28 +7409,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J41" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K41" t="n">
-        <v>525.9458847132731</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L41" t="n">
-        <v>1601.005850966132</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M41" t="n">
-        <v>2758.053686176683</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N41" t="n">
-        <v>2758.053686176683</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O41" t="n">
-        <v>3738.23335274699</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P41" t="n">
-        <v>4566.543227580386</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q41" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R41" t="n">
         <v>5113.04201353898</v>
@@ -7454,7 +7454,7 @@
         <v>3363.485741837043</v>
       </c>
       <c r="Y41" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="42">
@@ -7543,13 +7543,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1181.319000882661</v>
+        <v>1181.31900088266</v>
       </c>
       <c r="C43" t="n">
-        <v>1008.757289365886</v>
+        <v>1008.757289365885</v>
       </c>
       <c r="D43" t="n">
-        <v>842.8792965674086</v>
+        <v>842.8792965674072</v>
       </c>
       <c r="E43" t="n">
         <v>673.1212928181459</v>
@@ -7558,7 +7558,7 @@
         <v>496.4142387799021</v>
       </c>
       <c r="G43" t="n">
-        <v>330.8229638057297</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H43" t="n">
         <v>190.9207894961043</v>
@@ -7591,28 +7591,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R43" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S43" t="n">
-        <v>2559.679081471576</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T43" t="n">
-        <v>2559.679081471576</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U43" t="n">
-        <v>2281.246080724681</v>
+        <v>2117.975449367835</v>
       </c>
       <c r="V43" t="n">
-        <v>1994.290572595112</v>
+        <v>2117.975449367835</v>
       </c>
       <c r="W43" t="n">
-        <v>1722.264168181403</v>
+        <v>1845.949044954126</v>
       </c>
       <c r="X43" t="n">
-        <v>1476.872413514816</v>
+        <v>1600.557290287539</v>
       </c>
       <c r="Y43" t="n">
-        <v>1249.452742828924</v>
+        <v>1373.137619601647</v>
       </c>
     </row>
     <row r="44">
@@ -7676,19 +7676,19 @@
         <v>5029.390139722817</v>
       </c>
       <c r="T44" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595855</v>
       </c>
       <c r="U44" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912872</v>
       </c>
       <c r="V44" t="n">
         <v>4187.483659846698</v>
       </c>
       <c r="W44" t="n">
-        <v>3782.628205257731</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X44" t="n">
-        <v>3363.485741837042</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y44" t="n">
         <v>2955.199618136696</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1015.441008084184</v>
+        <v>952.7568773477109</v>
       </c>
       <c r="C46" t="n">
-        <v>842.8792965674087</v>
+        <v>780.1951658309358</v>
       </c>
       <c r="D46" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324585</v>
       </c>
       <c r="E46" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F46" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G46" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H46" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I46" t="n">
         <v>102.2608402707796</v>
@@ -7828,28 +7828,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R46" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S46" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T46" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U46" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V46" t="n">
-        <v>1952.097456569359</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W46" t="n">
-        <v>1680.07105215565</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X46" t="n">
-        <v>1434.679297489063</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y46" t="n">
-        <v>1207.259626803171</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
   </sheetData>
@@ -7976,13 +7976,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>407.152590549595</v>
+        <v>613.8410568773338</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>40.34758805803835</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -7991,16 +7991,16 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>613.8410568773338</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8058,13 +8058,13 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>613.8410568773338</v>
       </c>
       <c r="L3" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>47.47818213854885</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8076,7 +8076,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8134,28 +8134,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>407.5401155184051</v>
+        <v>209.9062776003129</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8213,10 +8213,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -8228,13 +8228,13 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>236.2898988798406</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8295,10 +8295,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8371,28 +8371,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8450,10 +8450,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -8462,16 +8462,16 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>270.2148169866497</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>459.6491932314105</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P8" t="n">
-        <v>459.6491932314105</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>459.6491932314107</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697543</v>
@@ -8532,10 +8532,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>459.6491932314106</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>288.2218006662688</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8547,10 +8547,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q9" t="n">
-        <v>459.6491932314107</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8608,19 +8608,19 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>459.6491932314105</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>163.0162739433825</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
         <v>423.9083325512944</v>
@@ -8629,7 +8629,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8687,19 +8687,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>429.2861157754757</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>40.81776196807323</v>
       </c>
       <c r="N11" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831379</v>
@@ -8769,22 +8769,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -8924,7 +8924,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>309.6062697457085</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
         <v>842.7780726850283</v>
@@ -8936,7 +8936,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>40.81776196807414</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831379</v>
@@ -8948,7 +8948,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9009,7 +9009,7 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9021,7 +9021,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -9179,13 +9179,13 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P17" t="n">
-        <v>706.6317115441711</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q17" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
-        <v>170.8626916697543</v>
+        <v>40.81776196807368</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9243,7 +9243,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9401,16 +9401,16 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>842.7780726850283</v>
+        <v>712.7331429833484</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>955.8742281294876</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
@@ -9480,7 +9480,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9872,19 +9872,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
-        <v>1085.919157831171</v>
+        <v>702.7389601124028</v>
       </c>
       <c r="M26" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
@@ -9896,7 +9896,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R26" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10109,31 +10109,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10346,19 +10346,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
-        <v>702.7389601124028</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
@@ -10370,7 +10370,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10586,28 +10586,28 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>583.0591140826364</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10829,10 +10829,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N38" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
@@ -11057,16 +11057,16 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>427.9646913560541</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -23315,10 +23315,10 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>267.5985112554907</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>267.598511255489</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23431,7 +23431,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>87.77334973307141</v>
@@ -23464,10 +23464,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>139.5921776627264</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>34.67467827192533</v>
       </c>
     </row>
     <row r="14">
@@ -23510,10 +23510,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>50.14457787893161</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,13 +23543,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>10.96843159933537</v>
       </c>
       <c r="T14" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23653,7 +23653,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>26.99333424003487</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23665,7 +23665,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23707,7 +23707,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>212.1323395461473</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23750,7 +23750,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23780,10 +23780,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>82.81535507800136</v>
+        <v>50.1445778789276</v>
       </c>
       <c r="T17" t="n">
-        <v>184.7831561774894</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23887,10 +23887,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>140.7232059832941</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23905,10 +23905,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>77.73307607587216</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23966,7 +23966,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>268.0111327346194</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -23987,7 +23987,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24029,7 +24029,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>267.5985112554904</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -24133,19 +24133,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>141.6500182959539</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>55.07653710780798</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,7 +24175,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24412,7 +24412,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>139.5921776627262</v>
+        <v>139.5921776627255</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24601,7 +24601,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24616,7 +24616,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
         <v>87.77334973307141</v>
@@ -24649,10 +24649,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>139.5921776627253</v>
       </c>
       <c r="T28" t="n">
-        <v>107.2592358276477</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24838,10 +24838,10 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>35.15749310933303</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24901,10 +24901,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>52.01701577190826</v>
       </c>
     </row>
     <row r="32">
@@ -25084,16 +25084,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>122.448028004997</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,10 +25123,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25324,13 +25324,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,13 +25357,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>223.1369608195779</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25549,25 +25549,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>139.5921776627254</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,13 +25594,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>44.07191583437682</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25783,7 +25783,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>122.4480280049969</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25831,19 +25831,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>102.9863699957334</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26026,7 +26026,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26038,10 +26038,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,10 +26068,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26080,7 +26080,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>222.8531101735159</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>594754.8086682427</v>
+        <v>600586.367759255</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>594754.8086682427</v>
+        <v>602237.7099028431</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>595842.4915373632</v>
+        <v>602237.7099028431</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>582122.2963779907</v>
+        <v>582122.2963779909</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>582122.2963779905</v>
+        <v>582122.2963779909</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>582122.2963779907</v>
+        <v>582122.2963779911</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>582122.2963779907</v>
+        <v>582122.296377991</v>
       </c>
     </row>
     <row r="9">
@@ -26311,25 +26311,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>361899.4409260259</v>
+        <v>361899.4409260256</v>
       </c>
       <c r="C2" t="n">
         <v>361899.4409260257</v>
       </c>
       <c r="D2" t="n">
-        <v>361899.4409260258</v>
+        <v>361899.4409260257</v>
       </c>
       <c r="E2" t="n">
-        <v>341228.6311308815</v>
+        <v>341228.6311308816</v>
       </c>
       <c r="F2" t="n">
-        <v>341228.6311308815</v>
+        <v>341228.6311308817</v>
       </c>
       <c r="G2" t="n">
-        <v>341228.6311308815</v>
+        <v>341228.6311308817</v>
       </c>
       <c r="H2" t="n">
-        <v>341228.6311308815</v>
+        <v>341228.6311308817</v>
       </c>
       <c r="I2" t="n">
         <v>355628.8692927127</v>
@@ -26353,7 +26353,7 @@
         <v>355628.8692927128</v>
       </c>
       <c r="P2" t="n">
-        <v>355628.8692927128</v>
+        <v>355628.8692927127</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>142191.3006597099</v>
+        <v>205712.2565039027</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>17340.54437390683</v>
       </c>
       <c r="D3" t="n">
-        <v>10981.80667200304</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>223799.2937520269</v>
+        <v>161735.0752101144</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,19 +26384,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>18364.71563283958</v>
+        <v>18364.7156328394</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449902</v>
+        <v>160607.8294856131</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>13814.00856784528</v>
       </c>
       <c r="L3" t="n">
-        <v>8947.611088510197</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>186790.9866104673</v>
+        <v>134989.9446130035</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,25 +26415,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187564.5330558133</v>
+        <v>150016.3828485738</v>
       </c>
       <c r="C4" t="n">
-        <v>187564.5330558133</v>
+        <v>139383.7472389045</v>
       </c>
       <c r="D4" t="n">
-        <v>180561.1778449368</v>
+        <v>139383.7472389045</v>
       </c>
       <c r="E4" t="n">
         <v>39457.78817960744</v>
       </c>
       <c r="F4" t="n">
-        <v>39457.78817960743</v>
+        <v>39457.78817960744</v>
       </c>
       <c r="G4" t="n">
-        <v>39457.78817960743</v>
+        <v>39457.78817960744</v>
       </c>
       <c r="H4" t="n">
-        <v>39457.78817960742</v>
+        <v>39457.78817960744</v>
       </c>
       <c r="I4" t="n">
         <v>41122.95192991271</v>
@@ -26445,7 +26445,7 @@
         <v>41122.95192991271</v>
       </c>
       <c r="L4" t="n">
-        <v>41122.95192991272</v>
+        <v>41122.95192991271</v>
       </c>
       <c r="M4" t="n">
         <v>41122.95192991271</v>
@@ -26454,10 +26454,10 @@
         <v>41122.95192991276</v>
       </c>
       <c r="O4" t="n">
+        <v>41122.95192991273</v>
+      </c>
+      <c r="P4" t="n">
         <v>41122.95192991271</v>
-      </c>
-      <c r="P4" t="n">
-        <v>41122.95192991275</v>
       </c>
     </row>
     <row r="5">
@@ -26467,25 +26467,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>59424.78813722234</v>
+        <v>70949.13625814189</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="D5" t="n">
-        <v>61574.27094846976</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>73519.34227764752</v>
+        <v>73519.34227764753</v>
       </c>
       <c r="F5" t="n">
-        <v>73519.34227764752</v>
+        <v>73519.34227764755</v>
       </c>
       <c r="G5" t="n">
-        <v>73519.34227764752</v>
+        <v>73519.34227764755</v>
       </c>
       <c r="H5" t="n">
-        <v>73519.34227764752</v>
+        <v>73519.34227764755</v>
       </c>
       <c r="I5" t="n">
         <v>77718.23860579252</v>
@@ -26500,7 +26500,7 @@
         <v>77718.23860579252</v>
       </c>
       <c r="M5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="N5" t="n">
         <v>77718.2386057925</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-27281.18092671968</v>
+        <v>-64778.33468459285</v>
       </c>
       <c r="C6" t="n">
-        <v>114910.1197329901</v>
+        <v>130962.6247514567</v>
       </c>
       <c r="D6" t="n">
-        <v>108782.1854606163</v>
+        <v>148303.1691253635</v>
       </c>
       <c r="E6" t="n">
-        <v>4452.206921599631</v>
+        <v>66439.86690871534</v>
       </c>
       <c r="F6" t="n">
-        <v>228251.5006736265</v>
+        <v>228174.9421188299</v>
       </c>
       <c r="G6" t="n">
-        <v>228251.5006736265</v>
+        <v>228174.9421188299</v>
       </c>
       <c r="H6" t="n">
-        <v>228251.5006736266</v>
+        <v>228174.9421188299</v>
       </c>
       <c r="I6" t="n">
-        <v>218422.9631241679</v>
+        <v>218399.7387847854</v>
       </c>
       <c r="J6" t="n">
-        <v>125773.2134120173</v>
+        <v>76156.62493201173</v>
       </c>
       <c r="K6" t="n">
-        <v>236787.6787570075</v>
+        <v>222950.4458497796</v>
       </c>
       <c r="L6" t="n">
-        <v>227840.0676684973</v>
+        <v>236764.4544176248</v>
       </c>
       <c r="M6" t="n">
-        <v>49996.69214654027</v>
+        <v>101774.5098046214</v>
       </c>
       <c r="N6" t="n">
-        <v>236787.6787570076</v>
+        <v>236764.4544176248</v>
       </c>
       <c r="O6" t="n">
-        <v>236787.6787570076</v>
+        <v>236764.4544176249</v>
       </c>
       <c r="P6" t="n">
-        <v>236787.6787570076</v>
+        <v>236764.4544176248</v>
       </c>
     </row>
   </sheetData>
@@ -26787,25 +26787,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773338</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="D4" t="n">
-        <v>459.6491932314105</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>1209.199708513939</v>
+        <v>1209.19970851394</v>
       </c>
       <c r="F4" t="n">
-        <v>1209.199708513939</v>
+        <v>1209.19970851394</v>
       </c>
       <c r="G4" t="n">
-        <v>1209.199708513939</v>
+        <v>1209.19970851394</v>
       </c>
       <c r="H4" t="n">
-        <v>1209.199708513939</v>
+        <v>1209.19970851394</v>
       </c>
       <c r="I4" t="n">
         <v>1278.260503384745</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773338</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>53.67414973052314</v>
       </c>
       <c r="D4" t="n">
-        <v>35.35333571130619</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>749.5505152825289</v>
+        <v>541.6845019060829</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,19 +27030,19 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>69.06079487080592</v>
+        <v>69.06079487080524</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773338</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>53.67414973052314</v>
       </c>
       <c r="L4" t="n">
-        <v>35.35333571130619</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>749.5505152825286</v>
+        <v>541.6845019060829</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773338</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>53.67414973052314</v>
       </c>
       <c r="L4" t="n">
-        <v>35.35333571130619</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>749.5505152825289</v>
+        <v>541.6845019060829</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,19 +27376,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>9.465190568306582</v>
+        <v>394.174371998084</v>
       </c>
       <c r="D2" t="n">
-        <v>104.2627093945167</v>
+        <v>400</v>
       </c>
       <c r="E2" t="n">
         <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>397.3838530629687</v>
@@ -27397,7 +27397,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27433,19 +27433,19 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27582,19 +27582,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>242.8241876663074</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27603,7 +27603,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>205.1590987941917</v>
       </c>
     </row>
     <row r="5">
@@ -27613,10 +27613,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>196.9558765199561</v>
+        <v>400</v>
       </c>
       <c r="D5" t="n">
         <v>400</v>
@@ -27625,16 +27625,16 @@
         <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
+        <v>30.32229151846116</v>
+      </c>
+      <c r="Y5" t="n">
         <v>400</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,22 +27771,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>83.83779588133098</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>139.5921776627263</v>
       </c>
       <c r="H7" t="n">
         <v>138.5031525665292</v>
@@ -27822,7 +27822,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -27853,7 +27853,7 @@
         <v>400</v>
       </c>
       <c r="C8" t="n">
-        <v>374.3251492764863</v>
+        <v>400</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27868,7 +27868,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,13 +27901,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>11.18956716623529</v>
       </c>
       <c r="V8" t="n">
         <v>358.9907805655117</v>
@@ -28020,16 +28020,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>73.24772134709841</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="H10" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,16 +28059,16 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -30241,7 +30241,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30624,7 +30624,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>1.350599632132798e-12</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -34696,13 +34696,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>407.152590549595</v>
+        <v>613.8410568773338</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>40.34758805803835</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -34711,16 +34711,16 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>613.8410568773338</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34772,19 +34772,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J3" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>613.8410568773338</v>
       </c>
       <c r="L3" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>47.47818213854885</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -34796,7 +34796,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>407.5401155184051</v>
+        <v>209.9062776003129</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,10 +34933,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -34948,13 +34948,13 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>236.2898988798406</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35015,10 +35015,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35033,7 +35033,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,10 +35170,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -35182,16 +35182,16 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>270.2148169866497</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>459.6491932314105</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P8" t="n">
-        <v>459.6491932314105</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>459.6491932314107</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697544</v>
@@ -35252,10 +35252,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>459.6491932314106</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>288.2218006662688</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35267,10 +35267,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q9" t="n">
-        <v>459.6491932314107</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>459.6491932314105</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>163.0162739433825</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
         <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,19 +35407,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>429.2861157754757</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>40.81776196807323</v>
       </c>
       <c r="N11" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831377</v>
@@ -35489,22 +35489,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35644,7 +35644,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>309.6062697457085</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
         <v>842.7780726850283</v>
@@ -35656,7 +35656,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>40.81776196807414</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831377</v>
@@ -35668,7 +35668,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>170.8626916697549</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35729,7 +35729,7 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -35741,7 +35741,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N16" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P16" t="n">
         <v>351.017064616507</v>
@@ -35899,13 +35899,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P17" t="n">
-        <v>706.6317115441711</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q17" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
-        <v>170.8626916697549</v>
+        <v>40.81776196807368</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,7 +35963,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N19" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O19" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P19" t="n">
         <v>351.017064616507</v>
@@ -36121,16 +36121,16 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>842.7780726850283</v>
+        <v>712.7331429833484</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>955.8742281294876</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
@@ -36142,7 +36142,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R20" t="n">
-        <v>170.8626916697549</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,7 +36200,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L22" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M22" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N22" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O22" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P22" t="n">
         <v>351.017064616507</v>
@@ -36592,19 +36592,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
-        <v>1085.919157831171</v>
+        <v>702.7389601124028</v>
       </c>
       <c r="M26" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
@@ -36616,7 +36616,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R26" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36771,7 +36771,7 @@
         <v>351.017064616507</v>
       </c>
       <c r="Q28" t="n">
-        <v>169.8916917821543</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37066,19 +37066,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L32" t="n">
-        <v>702.7389601124028</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
@@ -37090,7 +37090,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37306,28 +37306,28 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>583.0591140826364</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
         <v>327.836691885063</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K37" t="n">
         <v>277.5337924960966</v>
@@ -37549,10 +37549,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N38" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
@@ -37713,7 +37713,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P40" t="n">
         <v>351.017064616507</v>
@@ -37777,16 +37777,16 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>427.9646913560541</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L41" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -37801,7 +37801,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37950,7 +37950,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P43" t="n">
         <v>351.017064616507</v>
